--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Tshr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Tshr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H2">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.454662909998737</v>
+        <v>0.8749903333333333</v>
       </c>
       <c r="N2">
-        <v>0.454662909998737</v>
+        <v>2.624971</v>
       </c>
       <c r="O2">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="P2">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="Q2">
-        <v>8.637074686147079</v>
+        <v>19.11833636890289</v>
       </c>
       <c r="R2">
-        <v>8.637074686147079</v>
+        <v>172.065027320126</v>
       </c>
       <c r="S2">
-        <v>0.009504286423159976</v>
+        <v>0.01340604545383059</v>
       </c>
       <c r="T2">
-        <v>0.009504286423159976</v>
+        <v>0.01340604545383059</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H3">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.74516466488891</v>
+        <v>0.8147036666666666</v>
       </c>
       <c r="N3">
-        <v>0.74516466488891</v>
+        <v>2.444111</v>
       </c>
       <c r="O3">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="P3">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="Q3">
-        <v>14.15563645633895</v>
+        <v>17.80108664855178</v>
       </c>
       <c r="R3">
-        <v>14.15563645633895</v>
+        <v>160.209779836966</v>
       </c>
       <c r="S3">
-        <v>0.01557694338326804</v>
+        <v>0.01248237148532587</v>
       </c>
       <c r="T3">
-        <v>0.01557694338326804</v>
+        <v>0.01248237148532587</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H4">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.935470285848349</v>
+        <v>1.586789</v>
       </c>
       <c r="N4">
-        <v>0.935470285848349</v>
+        <v>4.760367</v>
       </c>
       <c r="O4">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="P4">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="Q4">
-        <v>17.77080678423052</v>
+        <v>34.67097257281133</v>
       </c>
       <c r="R4">
-        <v>17.77080678423052</v>
+        <v>312.038753155302</v>
       </c>
       <c r="S4">
-        <v>0.01955509750527648</v>
+        <v>0.02431177196963896</v>
       </c>
       <c r="T4">
-        <v>0.01955509750527648</v>
+        <v>0.02431177196963896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H5">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.454662909998737</v>
+        <v>0.8749903333333333</v>
       </c>
       <c r="N5">
-        <v>0.454662909998737</v>
+        <v>2.624971</v>
       </c>
       <c r="O5">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="P5">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="Q5">
-        <v>172.7510221419344</v>
+        <v>336.9171893677868</v>
       </c>
       <c r="R5">
-        <v>172.7510221419344</v>
+        <v>3032.254704310081</v>
       </c>
       <c r="S5">
-        <v>0.1900962135899998</v>
+        <v>0.2362510559333041</v>
       </c>
       <c r="T5">
-        <v>0.1900962135899998</v>
+        <v>0.2362510559333041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H6">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.74516466488891</v>
+        <v>0.8147036666666666</v>
       </c>
       <c r="N6">
-        <v>0.74516466488891</v>
+        <v>2.444111</v>
       </c>
       <c r="O6">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="P6">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="Q6">
-        <v>283.1283456219659</v>
+        <v>313.7036594396246</v>
       </c>
       <c r="R6">
-        <v>283.1283456219659</v>
+        <v>2823.332934956621</v>
       </c>
       <c r="S6">
-        <v>0.3115560521460533</v>
+        <v>0.2199734033512004</v>
       </c>
       <c r="T6">
-        <v>0.3115560521460533</v>
+        <v>0.2199734033512004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H7">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.935470285848349</v>
+        <v>1.586789</v>
       </c>
       <c r="N7">
-        <v>0.935470285848349</v>
+        <v>4.760367</v>
       </c>
       <c r="O7">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="P7">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="Q7">
-        <v>355.4357404349494</v>
+        <v>610.9970243477596</v>
       </c>
       <c r="R7">
-        <v>355.4357404349494</v>
+        <v>5498.973219129837</v>
       </c>
       <c r="S7">
-        <v>0.3911235232850198</v>
+        <v>0.4284396781450366</v>
       </c>
       <c r="T7">
-        <v>0.3911235232850198</v>
+        <v>0.4284396781450366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H8">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.454662909998737</v>
+        <v>0.8749903333333333</v>
       </c>
       <c r="N8">
-        <v>0.454662909998737</v>
+        <v>2.624971</v>
       </c>
       <c r="O8">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="P8">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="Q8">
-        <v>12.1106788626836</v>
+        <v>24.80639507036966</v>
       </c>
       <c r="R8">
-        <v>12.1106788626836</v>
+        <v>223.257555633327</v>
       </c>
       <c r="S8">
-        <v>0.01332666034189416</v>
+        <v>0.01739459194786301</v>
       </c>
       <c r="T8">
-        <v>0.01332666034189416</v>
+        <v>0.01739459194786301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H9">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.74516466488891</v>
+        <v>0.8147036666666666</v>
       </c>
       <c r="N9">
-        <v>0.74516466488891</v>
+        <v>2.444111</v>
       </c>
       <c r="O9">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="P9">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="Q9">
-        <v>19.84866097019856</v>
+        <v>23.09723919305633</v>
       </c>
       <c r="R9">
-        <v>19.84866097019856</v>
+        <v>207.875152737507</v>
       </c>
       <c r="S9">
-        <v>0.02184158014513098</v>
+        <v>0.01619610788853798</v>
       </c>
       <c r="T9">
-        <v>0.02184158014513098</v>
+        <v>0.01619610788853797</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H10">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.935470285848349</v>
+        <v>1.586789</v>
       </c>
       <c r="N10">
-        <v>0.935470285848349</v>
+        <v>4.760367</v>
       </c>
       <c r="O10">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="P10">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="Q10">
-        <v>24.91775768013198</v>
+        <v>44.98622822193099</v>
       </c>
       <c r="R10">
-        <v>24.91775768013198</v>
+        <v>404.8760539973789</v>
       </c>
       <c r="S10">
-        <v>0.02741964318019743</v>
+        <v>0.03154497382526238</v>
       </c>
       <c r="T10">
-        <v>0.02741964318019743</v>
+        <v>0.03154497382526238</v>
       </c>
     </row>
   </sheetData>
